--- a/Mifos Automation Excels/Client/Clientnavigation.xlsx
+++ b/Mifos Automation Excels/Client/Clientnavigation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="setup" sheetId="7" r:id="rId1"/>
+    <sheet name="Setup" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -22,10 +22,10 @@
     <t>createclient</t>
   </si>
   <si>
-    <t>createclick</t>
+    <t>clients</t>
   </si>
   <si>
-    <t>clients</t>
+    <t>clickonclient</t>
   </si>
 </sst>
 </file>
@@ -371,12 +371,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -385,12 +385,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
